--- a/Line Graph (Evaluation).xlsx
+++ b/Line Graph (Evaluation).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dropbox\diplomski\Nikola Stevanovic 14525 C#\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dropbox\diplomski\Nikola Stevanovic 14525 C#\Diplomski\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1841,7 +1841,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,8 +2149,11 @@
       <c r="E16" s="1">
         <v>4.5023148148148142E-6</v>
       </c>
+      <c r="F16" s="1">
+        <v>8.5533715277777769E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2163,8 +2166,11 @@
       <c r="E17" s="1">
         <v>4.5949074074074077E-6</v>
       </c>
+      <c r="F17" s="1">
+        <v>3.709789351851852E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2178,7 +2184,7 @@
         <v>5.1504629629629631E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2192,7 +2198,7 @@
         <v>5.5324074074074076E-6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2206,7 +2212,7 @@
         <v>5.9606481481481485E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>1.2199074074074075E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>30</v>
       </c>
@@ -2234,7 +2240,7 @@
         <v>1.9490740740740743E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>40</v>
       </c>

--- a/Line Graph (Evaluation).xlsx
+++ b/Line Graph (Evaluation).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Naïve</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Atkin elliptic curve (ECPP)</t>
-  </si>
-  <si>
-    <t>Cifra</t>
   </si>
   <si>
     <t>100123456789</t>
@@ -81,6 +78,27 @@
   </si>
   <si>
     <t>81744303091421</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>2074722246773485207821695222107608587480996474721117292752992589912196684750549658310084416732550077</t>
+  </si>
+  <si>
+    <t>Broj</t>
+  </si>
+  <si>
+    <t>Cifara</t>
+  </si>
+  <si>
+    <t>8960857</t>
+  </si>
+  <si>
+    <t>32416188191</t>
   </si>
 </sst>
 </file>
@@ -241,7 +259,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -276,10 +294,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$23</c:f>
+              <c:f>Sheet1!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -345,81 +363,87 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$23</c:f>
+              <c:f>Sheet1!$F$2:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss.000\ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>4.6296296296296302E-8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2592592592592604E-8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1574074074074073E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7361111111111112E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5879629629629633E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5879629629629633E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.282407407407407E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.282407407407407E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3981481481481479E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3425925925925926E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9212962962962966E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9560185185185185E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3148148148148148E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6736111111111111E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7662037037037038E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8819444444444443E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1134259259259265E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.2870370370370374E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8310185185185187E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.2708333333333345E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4236111111111111E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.2592592592592591E-5</c:v>
+                  <c:v>5.7870370370370364E-8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8194444444444445E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -471,10 +495,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$23</c:f>
+              <c:f>Sheet1!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -540,16 +564,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$23</c:f>
+              <c:f>Sheet1!$E$2:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss.000\ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.7361111111111112E-7</c:v>
                 </c:pt>
@@ -615,6 +642,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3.043981481481481E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2817129629629628E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -880,8 +910,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.3498070271781088"/>
           <c:y val="0.95108540521292184"/>
-          <c:w val="0.57057374734656274"/>
-          <c:h val="2.5236783995719332E-2"/>
+          <c:w val="0.33896591343431659"/>
+          <c:h val="4.8914504227141671E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -913,6 +943,341 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>[h]:mm:ss.000\ </c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1574074074074076E-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2407407407407406E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9027777777777778E-7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2453703703703703E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6840277777777778E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5416666666666669E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.666666666666667E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.009722222222222E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.6908564814814814E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5433333333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0433958333333332E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DF7-4149-BC2D-617326CBE688}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="508399952"/>
+        <c:axId val="508400608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="508399952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508400608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="508400608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[h]:mm:ss.000\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508399952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -997,6 +1362,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1500,20 +1905,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>371918</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>125196</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>102784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1533,6 +2441,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>397807</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2B35A7-AE8D-4A27-96B8-CA4A30632477}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1838,48 +2782,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3B6D6F-2677-425F-9BD2-97D62F0510F1}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.85546875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>7</v>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>4.6296296296296302E-8</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>1.7361111111111112E-7</v>
@@ -1899,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>9.2592592592592604E-8</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>2.7777777777777776E-7</v>
@@ -1912,14 +2861,14 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>457</v>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1.1574074074074073E-7</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>4.282407407407407E-7</v>
@@ -1945,7 +2894,7 @@
         <v>5.4398148148148154E-7</v>
       </c>
       <c r="F5" s="1">
-        <v>1.7361111111111112E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1956,16 +2905,16 @@
         <v>96827</v>
       </c>
       <c r="C6" s="1">
-        <v>1.7361111111111112E-7</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>3.5879629629629633E-7</v>
+        <v>1.5879629629629628E-5</v>
       </c>
       <c r="E6" s="1">
         <v>7.1759259259259266E-7</v>
       </c>
       <c r="F6" s="1">
-        <v>1.5879629629629628E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1973,39 +2922,39 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
-        <v>2.5462962962962963E-7</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>3.5879629629629633E-7</v>
+        <v>8.4027777777777774E-6</v>
       </c>
       <c r="E7" s="1">
         <v>7.8703703703703708E-7</v>
       </c>
       <c r="F7" s="1">
-        <v>8.4027777777777774E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>8960857</v>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>1.3344907407407407E-5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>4.282407407407407E-7</v>
+        <v>7.9861111111111128E-7</v>
       </c>
       <c r="E8" s="1">
         <v>9.0277777777777776E-7</v>
       </c>
       <c r="F8" s="1">
-        <v>7.9861111111111128E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2016,16 +2965,16 @@
         <v>15487469</v>
       </c>
       <c r="C9" s="1">
-        <v>2.2233796296296295E-5</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>4.282407407407407E-7</v>
+        <v>1.7326388888888885E-5</v>
       </c>
       <c r="E9" s="1">
         <v>9.8379629629629648E-7</v>
       </c>
       <c r="F9" s="1">
-        <v>1.7326388888888885E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2036,16 +2985,16 @@
         <v>179424989</v>
       </c>
       <c r="C10" s="1">
-        <v>2.615856481481481E-4</v>
+        <v>1.1574074074074076E-8</v>
       </c>
       <c r="D10" s="1">
-        <v>4.3981481481481479E-7</v>
+        <v>3.2442129629629627E-5</v>
       </c>
       <c r="E10" s="1">
         <v>1.1574074074074074E-6</v>
       </c>
       <c r="F10" s="1">
-        <v>3.2442129629629627E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2053,39 +3002,39 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>2.9793287037037032E-3</v>
+        <v>1.7361111111111112E-7</v>
       </c>
       <c r="D11" s="1">
-        <v>1.3425925925925926E-6</v>
+        <v>1.5186689814814813E-3</v>
       </c>
       <c r="E11" s="1">
         <v>2.3148148148148148E-6</v>
       </c>
       <c r="F11" s="1">
-        <v>1.5186689814814813E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>32416188191</v>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="1">
-        <v>0.12435421296296297</v>
+        <v>3.2407407407407406E-7</v>
       </c>
       <c r="D12" s="1">
-        <v>1.9212962962962966E-6</v>
+        <v>2.6591550925925927E-3</v>
       </c>
       <c r="E12" s="1">
         <v>2.8587962962962965E-6</v>
       </c>
       <c r="F12" s="1">
-        <v>2.6591550925925927E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2093,16 +3042,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.9027777777777778E-7</v>
       </c>
       <c r="D13" s="1">
-        <v>1.9560185185185185E-6</v>
+        <v>1.6634375E-3</v>
       </c>
       <c r="E13" s="1">
         <v>3.472222222222222E-6</v>
       </c>
       <c r="F13" s="1">
-        <v>1.6634375E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2110,13 +3062,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2.3148148148148148E-6</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.2453703703703703E-6</v>
       </c>
       <c r="E14" s="1">
         <v>3.6689814814814819E-6</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2124,16 +3079,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.6840277777777778E-5</v>
       </c>
       <c r="D15" s="1">
-        <v>2.6736111111111111E-6</v>
+        <v>3.3654976851851849E-3</v>
       </c>
       <c r="E15" s="1">
         <v>3.9120370370370369E-6</v>
       </c>
       <c r="F15" s="1">
-        <v>3.3654976851851849E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2141,16 +3099,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.5416666666666669E-5</v>
       </c>
       <c r="D16" s="1">
-        <v>2.7662037037037038E-6</v>
+        <v>8.5533715277777769E-2</v>
       </c>
       <c r="E16" s="1">
         <v>4.5023148148148142E-6</v>
       </c>
       <c r="F16" s="1">
-        <v>8.5533715277777769E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2158,16 +3119,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6.666666666666667E-5</v>
       </c>
       <c r="D17" s="1">
-        <v>2.8819444444444443E-6</v>
+        <v>3.709789351851852E-2</v>
       </c>
       <c r="E17" s="1">
         <v>4.5949074074074077E-6</v>
       </c>
       <c r="F17" s="1">
-        <v>3.709789351851852E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2175,13 +3139,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3.1134259259259265E-6</v>
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.009722222222222E-4</v>
       </c>
       <c r="E18" s="1">
         <v>5.1504629629629631E-6</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2189,13 +3156,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3.2870370370370374E-6</v>
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6.6908564814814814E-4</v>
       </c>
       <c r="E19" s="1">
         <v>5.5324074074074076E-6</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2203,13 +3173,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3.8310185185185187E-6</v>
+        <v>9</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.5433333333333332E-3</v>
       </c>
       <c r="E20" s="1">
         <v>5.9606481481481485E-6</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2217,13 +3190,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="1">
-        <v>9.2708333333333345E-6</v>
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.0433958333333332E-2</v>
       </c>
       <c r="E21" s="1">
         <v>1.2199074074074075E-5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2231,13 +3207,13 @@
         <v>30</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.4236111111111111E-5</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1">
         <v>1.9490740740740743E-5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2245,13 +3221,27 @@
         <v>40</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2.2592592592592591E-5</v>
+        <v>12</v>
       </c>
       <c r="E23" s="1">
         <v>3.043981481481481E-5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5.7870370370370364E-8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>100</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.2817129629629628E-4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3.8194444444444445E-7</v>
       </c>
     </row>
   </sheetData>

--- a/Line Graph (Evaluation).xlsx
+++ b/Line Graph (Evaluation).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Naïve</t>
   </si>
@@ -39,18 +39,6 @@
   </si>
   <si>
     <t>Atkin elliptic curve (ECPP)</t>
-  </si>
-  <si>
-    <t>100123456789</t>
-  </si>
-  <si>
-    <t>355693655479801</t>
-  </si>
-  <si>
-    <t>1238926361552897</t>
-  </si>
-  <si>
-    <t>10269797835402631</t>
   </si>
   <si>
     <t>115578717622022981</t>
@@ -68,18 +56,6 @@
     <t>1451730470513778492236629598992166035067</t>
   </si>
   <si>
-    <t>314927</t>
-  </si>
-  <si>
-    <t>9152992349</t>
-  </si>
-  <si>
-    <t>1497631652873</t>
-  </si>
-  <si>
-    <t>81744303091421</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -95,10 +71,46 @@
     <t>Cifara</t>
   </si>
   <si>
-    <t>8960857</t>
+    <t>10007</t>
   </si>
   <si>
-    <t>32416188191</t>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>100057</t>
+  </si>
+  <si>
+    <t>1000033</t>
+  </si>
+  <si>
+    <t>10006721</t>
+  </si>
+  <si>
+    <t>100111001</t>
+  </si>
+  <si>
+    <t>1000000861</t>
+  </si>
+  <si>
+    <t>10123465789</t>
+  </si>
+  <si>
+    <t>101234567897</t>
+  </si>
+  <si>
+    <t>7177111117717</t>
+  </si>
+  <si>
+    <t>15261281789861</t>
+  </si>
+  <si>
+    <t>1510553619999637</t>
+  </si>
+  <si>
+    <t>277777788888989</t>
+  </si>
+  <si>
+    <t>10112269203786181</t>
   </si>
 </sst>
 </file>
@@ -245,8 +257,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13858043540628029"/>
-          <c:y val="6.0410551618540788E-2"/>
+          <c:x val="0.10207095892336759"/>
+          <c:y val="0.13202205481563348"/>
           <c:w val="0.86033126436753304"/>
           <c:h val="0.81193123796532507"/>
         </c:manualLayout>
@@ -2412,16 +2424,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>371918</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>102784</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>806823</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2784,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3B6D6F-2677-425F-9BD2-97D62F0510F1}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2799,10 +2811,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2822,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -2862,7 +2874,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -2881,14 +2893,14 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>7993</v>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1.7361111111111112E-7</v>
+        <v>1.1574074074074076E-8</v>
       </c>
       <c r="E5" s="1">
         <v>5.4398148148148154E-7</v>
@@ -2901,14 +2913,14 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>96827</v>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1.5879629629629628E-5</v>
+        <v>2.3148148148148151E-8</v>
       </c>
       <c r="E6" s="1">
         <v>7.1759259259259266E-7</v>
@@ -2922,13 +2934,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>8.4027777777777774E-6</v>
+        <v>3.472222222222222E-8</v>
       </c>
       <c r="E7" s="1">
         <v>7.8703703703703708E-7</v>
@@ -2942,13 +2954,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>7.9861111111111128E-7</v>
+        <v>3.472222222222222E-8</v>
       </c>
       <c r="E8" s="1">
         <v>9.0277777777777776E-7</v>
@@ -2961,14 +2973,14 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>15487469</v>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1.7326388888888885E-5</v>
+        <v>3.472222222222222E-8</v>
       </c>
       <c r="E9" s="1">
         <v>9.8379629629629648E-7</v>
@@ -2981,14 +2993,14 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>179424989</v>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <v>1.1574074074074076E-8</v>
       </c>
       <c r="D10" s="1">
-        <v>3.2442129629629627E-5</v>
+        <v>6.944444444444444E-8</v>
       </c>
       <c r="E10" s="1">
         <v>1.1574074074074074E-6</v>
@@ -3002,13 +3014,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>1.7361111111111112E-7</v>
       </c>
       <c r="D11" s="1">
-        <v>1.5186689814814813E-3</v>
+        <v>3.472222222222222E-8</v>
       </c>
       <c r="E11" s="1">
         <v>2.3148148148148148E-6</v>
@@ -3022,13 +3034,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
         <v>3.2407407407407406E-7</v>
       </c>
       <c r="D12" s="1">
-        <v>2.6591550925925927E-3</v>
+        <v>6.944444444444444E-8</v>
       </c>
       <c r="E12" s="1">
         <v>2.8587962962962965E-6</v>
@@ -3042,13 +3054,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
         <v>5.9027777777777778E-7</v>
       </c>
       <c r="D13" s="1">
-        <v>1.6634375E-3</v>
+        <v>9.2592592592592604E-8</v>
       </c>
       <c r="E13" s="1">
         <v>3.472222222222222E-6</v>
@@ -3062,10 +3074,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <v>2.2453703703703703E-6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6.944444444444444E-8</v>
       </c>
       <c r="E14" s="1">
         <v>3.6689814814814819E-6</v>
@@ -3079,13 +3094,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
         <v>1.6840277777777778E-5</v>
       </c>
       <c r="D15" s="1">
-        <v>3.3654976851851849E-3</v>
+        <v>8.1018518518518515E-8</v>
       </c>
       <c r="E15" s="1">
         <v>3.9120370370370369E-6</v>
@@ -3099,13 +3114,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
         <v>3.5416666666666669E-5</v>
       </c>
       <c r="D16" s="1">
-        <v>8.5533715277777769E-2</v>
+        <v>1.5393518518518519E-6</v>
       </c>
       <c r="E16" s="1">
         <v>4.5023148148148142E-6</v>
@@ -3119,13 +3134,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
         <v>6.666666666666667E-5</v>
       </c>
       <c r="D17" s="1">
-        <v>3.709789351851852E-2</v>
+        <v>9.6875E-6</v>
       </c>
       <c r="E17" s="1">
         <v>4.5949074074074077E-6</v>
@@ -3139,10 +3154,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
         <v>2.009722222222222E-4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6.7126157407407412E-4</v>
       </c>
       <c r="E18" s="1">
         <v>5.1504629629629631E-6</v>
@@ -3156,7 +3174,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1">
         <v>6.6908564814814814E-4</v>
@@ -3173,7 +3191,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
         <v>2.5433333333333332E-3</v>
@@ -3190,7 +3208,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
         <v>2.0433958333333332E-2</v>
@@ -3207,7 +3225,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E22" s="1">
         <v>1.9490740740740743E-5</v>
@@ -3221,7 +3239,7 @@
         <v>40</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1">
         <v>3.043981481481481E-5</v>
@@ -3235,7 +3253,7 @@
         <v>100</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1">
         <v>2.2817129629629628E-4</v>
